--- a/biology/Zoologie/Euxoa_nigricans/Euxoa_nigricans.xlsx
+++ b/biology/Zoologie/Euxoa_nigricans/Euxoa_nigricans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euxoa nigricans, la Noctuelle noirâtre ou le Noir-Atre, est une espèce d'insectes lépidoptères de la famille des Noctuidae (papillons de nuit), originaire d'Europe.
 Les chenilles de cette espèce se nourrissent aux dépens de nombreuses espèces de plantes sauvages et cultivées, consommant notamment les feuilles des choux, pommes de terre, haricots, betteraves, ainsi que les jeunes pousses de vigne.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Funet[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Funet :
 Phalaena (Noctua) nigricans Linnaeus, 1761
 Noctua fumosa Denis &amp; Schiffermüller, 1775
 Phalaena (Noctua) rubricans Esper, 1788
